--- a/biology/Médecine/Claude_Brunet/Claude_Brunet.xlsx
+++ b/biology/Médecine/Claude_Brunet/Claude_Brunet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Brunet est un médecin et philosophe français qui vivait à Paris à la fin du XVIIe siècle et au commencement du XVIIIe siècle. Son Projet d'une nouvelle métaphysique était considéré, par Lalande, comme l'ouvrage le plus représentatif du solipsisme.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'a pas joui jusqu'ici de la réputation que les idées neuves, grandes et hardies, répandues dans ses ouvrages, lui avaient méritée.[non neutre] On ignore le lieu et l'époque de sa naissance et de sa mort. Ses livres, cachés dans la poussière de quelques bibliothèques, sont devenus extrêmement rares. Il en est même qui semblent être entièrement perdus. Tout ce qu'on sait de sa vie privée, c'est qu'il paraissait aux conférences publiques de l'abbé de la Roque, où il fit une fois un discours sur le langage des bêtes, en présence de Régis, Adrien Auzout, Jacques Ozanam, Lémery , Duverney , etc., et qu'il fréquentait beaucoup la société de l'abbé de Cordemoy. Le 22 avril 1717, il soutint, dans son cours de médecine, une thèse curieuse A diversis alimenlis, indoles ingeniis diversa. Si l'on savait ce qu'est devenue la bibliothèque de ce savant, et où sont déposés ses papiers, on acquerrait, sans doute, plus de lumières sur Claude Brunet.
 </t>
@@ -542,7 +556,9 @@
           <t>Le Projet d'une nouvelle métaphysique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Projet d'une nouvelle-métaphysique, lu d'abord dans les conférences de l'abbé de Cordemoy, et imprimé ensuite, Paris, 1703 ou 1704, in-12. C'est par cet ouvrage surtout que Claude Brunet paraît singulièrement remarquable.[non neutre] Il a été tout à fait impossible d'en découvrir un seul exemplaire ; mais, par ce qu'en disent les journaux du temps, on voit que son auteur y exposait un système d'idéalisme hardi et important, le même qui, dix ans après, rendit si célèbre l'évêque anglais Berkeley, et que, sous une nouvelle forme, a réveillé au XIXe siècle, en Allemagne, l'ingénieux professeur Fichte, ce qui assurerait au philosophe français la priorité. Et qui sait si son livre n'a pas été le point de départ de l'évêque de Cloyne (Berkeley) ?
 Brunet, dans, le journal de médecine ci-dessus mentionné, laisse échapper des indications fréquentes du système philosophique qui l'occupait :
@@ -578,7 +594,9 @@
           <t>Autres publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ses principaux ouvrages sont :
 un Traité du progrès de la médecine, Paris, 1709, in-12, très rare. (Voir sur cet ouvrage, la Bibliothèque des philosophes et des savants, tant anciens que modernes, par Hubert Gautier, Paris, 1725, 3 vol. in-8°. Il se trouve, p. 285-5 du 1er vol., deux articles Brunet, qui peut-être concernent le même individu.)
